--- a/SETUP/sensore-forza/pattern.xlsx
+++ b/SETUP/sensore-forza/pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tactile-sensors\SETUP\sensore-forza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336986B4-FAD7-4F9D-96C2-9E13A44D901C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC93DA0B-D102-4FD5-9EE0-89C6D29E9282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4635" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SLIDING" sheetId="1" r:id="rId1"/>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,16 +450,16 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2">
@@ -473,137 +473,181 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <f>B2+A3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B12" si="0">B3+A4</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B8" si="0">B3+A4</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>90</v>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>90</v>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
@@ -681,6 +725,13 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -692,7 +743,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -771,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B8" si="0">B3+A4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -794,21 +845,21 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -820,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -838,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -859,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
